--- a/Codebook.xlsx
+++ b/Codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathi\OneDrive\Dokumenter\UNIVERSITY\DAAV Project 2023\DAAVProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ABB3885-F8C6-423A-8272-8128863D9BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E55CBD-846C-4C90-9E7A-9587051EF683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08635005-ADEB-4026-8327-B2C853003965}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>Type</t>
   </si>
@@ -65,9 +65,6 @@
     <t>DAAVDATA</t>
   </si>
   <si>
-    <t>df</t>
-  </si>
-  <si>
     <t>Type.of.Coffee</t>
   </si>
   <si>
@@ -273,6 +270,54 @@
   </si>
   <si>
     <t>Order(1, 15, 2, 16, 3, 17 (…))</t>
+  </si>
+  <si>
+    <t>cleandata</t>
+  </si>
+  <si>
+    <t>rawdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAAVDATA renamed </t>
+  </si>
+  <si>
+    <t>same as DAAVDATA</t>
+  </si>
+  <si>
+    <t>the final graph, ggp renamed</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>A vector defining the hex colours of the bars in the two merged barplots</t>
+  </si>
+  <si>
+    <t>"A", "B", "C", "D"</t>
+  </si>
+  <si>
+    <t>A = #1b703f</t>
+  </si>
+  <si>
+    <t>(Starbucks brand colour)</t>
+  </si>
+  <si>
+    <t>B = #B91345</t>
+  </si>
+  <si>
+    <t>(Costa brand colour)</t>
+  </si>
+  <si>
+    <t>C = #63330b</t>
+  </si>
+  <si>
+    <t>D = #996633</t>
+  </si>
+  <si>
+    <t>(Darker coffee-like colour used to indicate Starbucks volume)</t>
+  </si>
+  <si>
+    <t>(Lighter coffee-like colour used to indicate Costa volume)</t>
   </si>
 </sst>
 </file>
@@ -324,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -381,48 +426,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -430,9 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -443,6 +531,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8482EA-520B-49F1-BEFC-53DDDB7D2141}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,552 +896,650 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="11">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="29">
+        <v>5</v>
+      </c>
+      <c r="F8" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="21">
-        <v>4</v>
-      </c>
-      <c r="F8" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="20"/>
+      <c r="B43" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
